--- a/configs/Skill.xlsx
+++ b/configs/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CED25A-F3C7-4A75-A5FE-A90F283D74ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009571B3-EC72-4378-9B2B-25D706B2584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -382,13 +382,79 @@
   </si>
   <si>
     <t>召唤一个生命值{0}，火焰攻击{1)的神兽为你作战，神兽可攻击2格目标。</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>需求等级</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>$0=n1+fdmg*n2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>num4</t>
+  </si>
+  <si>
+    <t>$0=n1+fdmg*n2,$1=n3+fdmg*n4</t>
+  </si>
+  <si>
+    <t>klass</t>
+  </si>
+  <si>
+    <t>限定英雄</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>warr</t>
+  </si>
+  <si>
+    <t>wlk</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>UnitId[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +467,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -437,7 +509,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -774,475 +856,803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="1">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="1">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="1">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="1">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="1">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="1">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E16" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E20" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E21" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E26" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E27" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E28" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E32" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E33" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E34" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E38" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E39" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="E40" s="1">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:A10">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A11:A16">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A22">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A28">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:A34">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A40">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
